--- a/Code/Results/Cases/Case_1_67/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_67/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.001875573222701</v>
+        <v>1.03405623995107</v>
       </c>
       <c r="D2">
-        <v>1.040922547239973</v>
+        <v>1.053937298376954</v>
       </c>
       <c r="E2">
-        <v>1.00792723620687</v>
+        <v>1.033273968449183</v>
       </c>
       <c r="F2">
-        <v>1.036926976714758</v>
+        <v>1.058389320342116</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048469302781056</v>
+        <v>1.041446407748981</v>
       </c>
       <c r="J2">
-        <v>1.024000330568078</v>
+        <v>1.039177576438479</v>
       </c>
       <c r="K2">
-        <v>1.051839751829943</v>
+        <v>1.05668188945192</v>
       </c>
       <c r="L2">
-        <v>1.01927722582333</v>
+        <v>1.036076790351392</v>
       </c>
       <c r="M2">
-        <v>1.047894758425326</v>
+        <v>1.06112168783682</v>
       </c>
       <c r="N2">
-        <v>1.011530982553315</v>
+        <v>1.016962485373594</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.006921422728616</v>
+        <v>1.03511211875877</v>
       </c>
       <c r="D3">
-        <v>1.044548049955912</v>
+        <v>1.054711345835702</v>
       </c>
       <c r="E3">
-        <v>1.012005137213924</v>
+        <v>1.034174896856251</v>
       </c>
       <c r="F3">
-        <v>1.041351355618685</v>
+        <v>1.059367726844822</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050011809175189</v>
+        <v>1.041713268513735</v>
       </c>
       <c r="J3">
-        <v>1.027225164810597</v>
+        <v>1.039875888773329</v>
       </c>
       <c r="K3">
-        <v>1.054640975697164</v>
+        <v>1.057269180782924</v>
       </c>
       <c r="L3">
-        <v>1.022486680342162</v>
+        <v>1.036786419238477</v>
       </c>
       <c r="M3">
-        <v>1.051481125603317</v>
+        <v>1.061913700999173</v>
       </c>
       <c r="N3">
-        <v>1.012643980164861</v>
+        <v>1.017199557136452</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.010115167219566</v>
+        <v>1.035795591188602</v>
       </c>
       <c r="D4">
-        <v>1.046846984185083</v>
+        <v>1.055212356676277</v>
       </c>
       <c r="E4">
-        <v>1.014592256559297</v>
+        <v>1.034758410727506</v>
       </c>
       <c r="F4">
-        <v>1.044158941406251</v>
+        <v>1.060001425775855</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050979585305238</v>
+        <v>1.041884864582707</v>
       </c>
       <c r="J4">
-        <v>1.02926361805729</v>
+        <v>1.040327427848801</v>
       </c>
       <c r="K4">
-        <v>1.056411065611828</v>
+        <v>1.057648686896345</v>
       </c>
       <c r="L4">
-        <v>1.024517699105209</v>
+        <v>1.037245519337699</v>
       </c>
       <c r="M4">
-        <v>1.053752091426645</v>
+        <v>1.062426171140407</v>
       </c>
       <c r="N4">
-        <v>1.013346946275845</v>
+        <v>1.017352716064742</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.011441427578386</v>
+        <v>1.036082982452811</v>
       </c>
       <c r="D5">
-        <v>1.047802574084794</v>
+        <v>1.055423016611189</v>
       </c>
       <c r="E5">
-        <v>1.015667999377724</v>
+        <v>1.035003851726083</v>
       </c>
       <c r="F5">
-        <v>1.045326490890087</v>
+        <v>1.06026797664285</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051379373807262</v>
+        <v>1.041956744525575</v>
       </c>
       <c r="J5">
-        <v>1.030109437096146</v>
+        <v>1.040517178951307</v>
       </c>
       <c r="K5">
-        <v>1.0571453524955</v>
+        <v>1.057808108297795</v>
       </c>
       <c r="L5">
-        <v>1.025360979492749</v>
+        <v>1.037438506096037</v>
       </c>
       <c r="M5">
-        <v>1.054695316909339</v>
+        <v>1.062641609157774</v>
       </c>
       <c r="N5">
-        <v>1.013638484323464</v>
+        <v>1.017417045835507</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.011663170196918</v>
+        <v>1.036131240198004</v>
       </c>
       <c r="D6">
-        <v>1.047962394164813</v>
+        <v>1.055458389362577</v>
       </c>
       <c r="E6">
-        <v>1.015847937486017</v>
+        <v>1.035045070058935</v>
       </c>
       <c r="F6">
-        <v>1.045521792724468</v>
+        <v>1.060312740115338</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051446091291938</v>
+        <v>1.041968798284366</v>
       </c>
       <c r="J6">
-        <v>1.030250811404839</v>
+        <v>1.040549034534105</v>
       </c>
       <c r="K6">
-        <v>1.057268073161828</v>
+        <v>1.057834868620789</v>
       </c>
       <c r="L6">
-        <v>1.025501961520312</v>
+        <v>1.037470908299772</v>
       </c>
       <c r="M6">
-        <v>1.054853026128204</v>
+        <v>1.062677781867066</v>
       </c>
       <c r="N6">
-        <v>1.013687204667101</v>
+        <v>1.017427843665242</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.010132952317049</v>
+        <v>1.035799431091074</v>
       </c>
       <c r="D7">
-        <v>1.046859795104007</v>
+        <v>1.05521517138848</v>
       </c>
       <c r="E7">
-        <v>1.014606676784307</v>
+        <v>1.034761689805146</v>
       </c>
       <c r="F7">
-        <v>1.04417459178407</v>
+        <v>1.060004986877506</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050984954805332</v>
+        <v>1.041885826064291</v>
       </c>
       <c r="J7">
-        <v>1.02927496321797</v>
+        <v>1.040329963611079</v>
       </c>
       <c r="K7">
-        <v>1.056420915524776</v>
+        <v>1.057650817576993</v>
       </c>
       <c r="L7">
-        <v>1.024529008058757</v>
+        <v>1.037248098111101</v>
       </c>
       <c r="M7">
-        <v>1.05376473948076</v>
+        <v>1.062429049852092</v>
       </c>
       <c r="N7">
-        <v>1.013350857324137</v>
+        <v>1.017353575871419</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.003596011052605</v>
+        <v>1.034413027753361</v>
       </c>
       <c r="D8">
-        <v>1.042157766325685</v>
+        <v>1.054198859588805</v>
       </c>
       <c r="E8">
-        <v>1.009316341840676</v>
+        <v>1.033578326563954</v>
       </c>
       <c r="F8">
-        <v>1.03843395715561</v>
+        <v>1.058719851704352</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048997001325006</v>
+        <v>1.041536818162048</v>
       </c>
       <c r="J8">
-        <v>1.025100412448683</v>
+        <v>1.039413639521087</v>
       </c>
       <c r="K8">
-        <v>1.052795430049806</v>
+        <v>1.056880472608188</v>
       </c>
       <c r="L8">
-        <v>1.020371578986045</v>
+        <v>1.036316628490115</v>
       </c>
       <c r="M8">
-        <v>1.049117315838259</v>
+        <v>1.061389355112086</v>
       </c>
       <c r="N8">
-        <v>1.011910772831187</v>
+        <v>1.017042654933287</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9914992438489223</v>
+        <v>1.031971907633337</v>
       </c>
       <c r="D9">
-        <v>1.033494431895554</v>
+        <v>1.052409185030114</v>
       </c>
       <c r="E9">
-        <v>0.9995772429419684</v>
+        <v>1.031497350955861</v>
       </c>
       <c r="F9">
-        <v>1.02787214680753</v>
+        <v>1.056459947835809</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045252304573211</v>
+        <v>1.040913559143294</v>
       </c>
       <c r="J9">
-        <v>1.017355798716119</v>
+        <v>1.037796556547745</v>
       </c>
       <c r="K9">
-        <v>1.046066492912478</v>
+        <v>1.055519146960509</v>
       </c>
       <c r="L9">
-        <v>1.012677182810221</v>
+        <v>1.034674687255071</v>
       </c>
       <c r="M9">
-        <v>1.040528642838092</v>
+        <v>1.059557196015681</v>
       </c>
       <c r="N9">
-        <v>1.009234918927916</v>
+        <v>1.016492926095446</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9829979803549362</v>
+        <v>1.030345766534225</v>
       </c>
       <c r="D10">
-        <v>1.027438416452249</v>
+        <v>1.051216932667755</v>
       </c>
       <c r="E10">
-        <v>0.992771289092649</v>
+        <v>1.03011293331966</v>
       </c>
       <c r="F10">
-        <v>1.020497138504889</v>
+        <v>1.054956534652754</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042579281364793</v>
+        <v>1.040492516389032</v>
       </c>
       <c r="J10">
-        <v>1.011902787708599</v>
+        <v>1.036716904171296</v>
       </c>
       <c r="K10">
-        <v>1.041329325318171</v>
+        <v>1.054609029641201</v>
       </c>
       <c r="L10">
-        <v>1.007272298354153</v>
+        <v>1.033579698400884</v>
       </c>
       <c r="M10">
-        <v>1.034505916709733</v>
+        <v>1.058335743458551</v>
       </c>
       <c r="N10">
-        <v>1.007348503774098</v>
+        <v>1.016125211302096</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9792013954445942</v>
+        <v>1.029641929260788</v>
       </c>
       <c r="D11">
-        <v>1.02474312998151</v>
+        <v>1.050700891300611</v>
       </c>
       <c r="E11">
-        <v>0.9897418884809116</v>
+        <v>1.029514159520147</v>
       </c>
       <c r="F11">
-        <v>1.017216249399553</v>
+        <v>1.05430630673954</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041376512444941</v>
+        <v>1.04030889061943</v>
       </c>
       <c r="J11">
-        <v>1.009465769253429</v>
+        <v>1.036249027276852</v>
       </c>
       <c r="K11">
-        <v>1.039213040540772</v>
+        <v>1.05421433830249</v>
       </c>
       <c r="L11">
-        <v>1.004859885750758</v>
+        <v>1.033105474881998</v>
       </c>
       <c r="M11">
-        <v>1.031820635349564</v>
+        <v>1.057806846547167</v>
       </c>
       <c r="N11">
-        <v>1.006505005695147</v>
+        <v>1.015965697704369</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9777727202030996</v>
+        <v>1.029380536432043</v>
       </c>
       <c r="D12">
-        <v>1.023730418415408</v>
+        <v>1.050509243306792</v>
       </c>
       <c r="E12">
-        <v>0.9886035101073848</v>
+        <v>1.029291852125524</v>
       </c>
       <c r="F12">
-        <v>1.015983676682146</v>
+        <v>1.054064898060966</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040922620105848</v>
+        <v>1.040240487043985</v>
       </c>
       <c r="J12">
-        <v>1.008548505365794</v>
+        <v>1.036075180020269</v>
       </c>
       <c r="K12">
-        <v>1.038416678168967</v>
+        <v>1.054067642158573</v>
       </c>
       <c r="L12">
-        <v>1.00395235507213</v>
+        <v>1.032929314503283</v>
       </c>
       <c r="M12">
-        <v>1.030810930302372</v>
+        <v>1.057610391334591</v>
       </c>
       <c r="N12">
-        <v>1.006187468285808</v>
+        <v>1.015906403753116</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9780800297282064</v>
+        <v>1.029436604109276</v>
       </c>
       <c r="D13">
-        <v>1.023948181754395</v>
+        <v>1.050550350955249</v>
       </c>
       <c r="E13">
-        <v>0.988848302674046</v>
+        <v>1.029339533109185</v>
       </c>
       <c r="F13">
-        <v>1.016248709825189</v>
+        <v>1.054116675829569</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041020309626105</v>
+        <v>1.040255168744249</v>
       </c>
       <c r="J13">
-        <v>1.008745817799903</v>
+        <v>1.03611247342081</v>
       </c>
       <c r="K13">
-        <v>1.038587974329502</v>
+        <v>1.054099113051558</v>
       </c>
       <c r="L13">
-        <v>1.004147552372038</v>
+        <v>1.03296710207024</v>
       </c>
       <c r="M13">
-        <v>1.031028081664268</v>
+        <v>1.057652531605</v>
       </c>
       <c r="N13">
-        <v>1.006255776005469</v>
+        <v>1.015919124472609</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9790836838779302</v>
+        <v>1.029620321558706</v>
       </c>
       <c r="D14">
-        <v>1.024659658395306</v>
+        <v>1.050685048944257</v>
       </c>
       <c r="E14">
-        <v>0.9896480620273823</v>
+        <v>1.029495781400257</v>
       </c>
       <c r="F14">
-        <v>1.017114652823657</v>
+        <v>1.054286349474184</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041339140957364</v>
+        <v>1.040303240371542</v>
       </c>
       <c r="J14">
-        <v>1.009390197651099</v>
+        <v>1.036234658168967</v>
       </c>
       <c r="K14">
-        <v>1.039147425745458</v>
+        <v>1.054202214190096</v>
       </c>
       <c r="L14">
-        <v>1.004785106422809</v>
+        <v>1.033090913666495</v>
       </c>
       <c r="M14">
-        <v>1.031737427053385</v>
+        <v>1.057790607481093</v>
       </c>
       <c r="N14">
-        <v>1.006478845458196</v>
+        <v>1.015960797334236</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9796995883508196</v>
+        <v>1.029733521721556</v>
       </c>
       <c r="D15">
-        <v>1.025096471961265</v>
+        <v>1.050768045187944</v>
       </c>
       <c r="E15">
-        <v>0.9901390577385379</v>
+        <v>1.029592064904939</v>
       </c>
       <c r="F15">
-        <v>1.017646322579794</v>
+        <v>1.054390906257046</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041534628632593</v>
+        <v>1.040332832818674</v>
       </c>
       <c r="J15">
-        <v>1.00978560458911</v>
+        <v>1.036309932684731</v>
       </c>
       <c r="K15">
-        <v>1.039490744264512</v>
+        <v>1.054265726269481</v>
       </c>
       <c r="L15">
-        <v>1.005176387272333</v>
+        <v>1.033167196409819</v>
       </c>
       <c r="M15">
-        <v>1.032172831932497</v>
+        <v>1.057875680690467</v>
       </c>
       <c r="N15">
-        <v>1.006615719284865</v>
+        <v>1.015986467600763</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9832474218462396</v>
+        <v>1.030392484035785</v>
       </c>
       <c r="D16">
-        <v>1.027615706011683</v>
+        <v>1.051251185174982</v>
       </c>
       <c r="E16">
-        <v>0.9929705423094908</v>
+        <v>1.030152686503374</v>
       </c>
       <c r="F16">
-        <v>1.020712973648403</v>
+        <v>1.054999704212511</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042658123341557</v>
+        <v>1.04050467541622</v>
       </c>
       <c r="J16">
-        <v>1.012062872286879</v>
+        <v>1.036747947623624</v>
       </c>
       <c r="K16">
-        <v>1.041468363146924</v>
+        <v>1.054635211321308</v>
       </c>
       <c r="L16">
-        <v>1.007430831582404</v>
+        <v>1.033611169264252</v>
       </c>
       <c r="M16">
-        <v>1.034682445421194</v>
+        <v>1.058370844660961</v>
       </c>
       <c r="N16">
-        <v>1.007403903872029</v>
+        <v>1.016135791584794</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9854412139790886</v>
+        <v>1.030805911811829</v>
       </c>
       <c r="D17">
-        <v>1.029176005876387</v>
+        <v>1.051554303479122</v>
       </c>
       <c r="E17">
-        <v>0.9947240928675957</v>
+        <v>1.030504534191916</v>
       </c>
       <c r="F17">
-        <v>1.022612664967745</v>
+        <v>1.055381791066707</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043350507023875</v>
+        <v>1.040612116790759</v>
       </c>
       <c r="J17">
-        <v>1.013470594616732</v>
+        <v>1.037022601140543</v>
       </c>
       <c r="K17">
-        <v>1.042691107747244</v>
+        <v>1.054866818117417</v>
       </c>
       <c r="L17">
-        <v>1.008825264573133</v>
+        <v>1.033889638853648</v>
       </c>
       <c r="M17">
-        <v>1.036235497995183</v>
+        <v>1.058681448412934</v>
       </c>
       <c r="N17">
-        <v>1.007891022804966</v>
+        <v>1.016229380875844</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9867097526979834</v>
+        <v>1.031047085484624</v>
       </c>
       <c r="D18">
-        <v>1.030079102252085</v>
+        <v>1.051731127628309</v>
       </c>
       <c r="E18">
-        <v>0.9957390144603866</v>
+        <v>1.030709827363334</v>
       </c>
       <c r="F18">
-        <v>1.023712338532462</v>
+        <v>1.055604729134824</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043750011669715</v>
+        <v>1.040674658971482</v>
       </c>
       <c r="J18">
-        <v>1.014284425700385</v>
+        <v>1.037182765184883</v>
       </c>
       <c r="K18">
-        <v>1.043398072737539</v>
+        <v>1.055001852072955</v>
       </c>
       <c r="L18">
-        <v>1.00963170565343</v>
+        <v>1.034052057125074</v>
       </c>
       <c r="M18">
-        <v>1.037133945137729</v>
+        <v>1.058862618294166</v>
       </c>
       <c r="N18">
-        <v>1.008172593587785</v>
+        <v>1.016283941869457</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9871404472285781</v>
+        <v>1.0311293242741</v>
       </c>
       <c r="D19">
-        <v>1.030385864817712</v>
+        <v>1.051791423520558</v>
       </c>
       <c r="E19">
-        <v>0.9960837591775221</v>
+        <v>1.030779838272485</v>
       </c>
       <c r="F19">
-        <v>1.024085898969221</v>
+        <v>1.055680757659925</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043885503729774</v>
+        <v>1.040695962765445</v>
       </c>
       <c r="J19">
-        <v>1.014560707067295</v>
+        <v>1.037237370753428</v>
       </c>
       <c r="K19">
-        <v>1.04363808563919</v>
+        <v>1.055047885242844</v>
       </c>
       <c r="L19">
-        <v>1.009905527729716</v>
+        <v>1.034107436136883</v>
       </c>
       <c r="M19">
-        <v>1.037439052220459</v>
+        <v>1.058924392517083</v>
       </c>
       <c r="N19">
-        <v>1.008268174506875</v>
+        <v>1.016302540994247</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9852069928548394</v>
+        <v>1.030761552004422</v>
       </c>
       <c r="D20">
-        <v>1.029009328691588</v>
+        <v>1.051521779639966</v>
       </c>
       <c r="E20">
-        <v>0.994536775302735</v>
+        <v>1.030466777396659</v>
       </c>
       <c r="F20">
-        <v>1.022409718630507</v>
+        <v>1.05534078917909</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043276673088925</v>
+        <v>1.040600602436486</v>
       </c>
       <c r="J20">
-        <v>1.013320315820468</v>
+        <v>1.03699313721264</v>
       </c>
       <c r="K20">
-        <v>1.042560567917258</v>
+        <v>1.054841974933096</v>
       </c>
       <c r="L20">
-        <v>1.008676374019981</v>
+        <v>1.033859762561438</v>
       </c>
       <c r="M20">
-        <v>1.036069642354587</v>
+        <v>1.058648123568578</v>
       </c>
       <c r="N20">
-        <v>1.007839025604354</v>
+        <v>1.01621934253139</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9787886515073266</v>
+        <v>1.02956622014552</v>
       </c>
       <c r="D21">
-        <v>1.024450470439504</v>
+        <v>1.050645382832319</v>
       </c>
       <c r="E21">
-        <v>0.9894129214192409</v>
+        <v>1.029449767302281</v>
       </c>
       <c r="F21">
-        <v>1.01686004445184</v>
+        <v>1.054236381636462</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04124545260367</v>
+        <v>1.040289089905801</v>
       </c>
       <c r="J21">
-        <v>1.009200781909961</v>
+        <v>1.036198679376466</v>
       </c>
       <c r="K21">
-        <v>1.038982969277229</v>
+        <v>1.054171855959721</v>
       </c>
       <c r="L21">
-        <v>1.004597684092005</v>
+        <v>1.033054454584163</v>
       </c>
       <c r="M21">
-        <v>1.031528886695967</v>
+        <v>1.057749947554012</v>
       </c>
       <c r="N21">
-        <v>1.006413275524336</v>
+        <v>1.015948526914563</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9746457985464985</v>
+        <v>1.028814920106885</v>
       </c>
       <c r="D22">
-        <v>1.021516911878845</v>
+        <v>1.050094547297467</v>
       </c>
       <c r="E22">
-        <v>0.9861150051612566</v>
+        <v>1.028810933794374</v>
       </c>
       <c r="F22">
-        <v>1.013289875691735</v>
+        <v>1.053542662043906</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03992691244233</v>
+        <v>1.040092091178684</v>
       </c>
       <c r="J22">
-        <v>1.006540605907674</v>
+        <v>1.035698842827351</v>
       </c>
       <c r="K22">
-        <v>1.036673835262193</v>
+        <v>1.05375000396003</v>
       </c>
       <c r="L22">
-        <v>1.001966637690113</v>
+        <v>1.032548052457542</v>
       </c>
       <c r="M22">
-        <v>1.028602576250603</v>
+        <v>1.057185232717284</v>
       </c>
       <c r="N22">
-        <v>1.00549228628412</v>
+        <v>1.015778002801944</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9768525752952367</v>
+        <v>1.029213174626349</v>
       </c>
       <c r="D23">
-        <v>1.023078629627653</v>
+        <v>1.050386537323817</v>
       </c>
       <c r="E23">
-        <v>0.9878707949412228</v>
+        <v>1.029149534390942</v>
       </c>
       <c r="F23">
-        <v>1.015190425684204</v>
+        <v>1.053910352615144</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040629936111418</v>
+        <v>1.040196631759034</v>
       </c>
       <c r="J23">
-        <v>1.007957688908677</v>
+        <v>1.035963846796709</v>
       </c>
       <c r="K23">
-        <v>1.037903794054899</v>
+        <v>1.053973684922509</v>
       </c>
       <c r="L23">
-        <v>1.003367941690174</v>
+        <v>1.032816512632506</v>
       </c>
       <c r="M23">
-        <v>1.030160860498321</v>
+        <v>1.057484598139138</v>
       </c>
       <c r="N23">
-        <v>1.00598292589991</v>
+        <v>1.01586842465094</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9853128614061019</v>
+        <v>1.030781596204486</v>
       </c>
       <c r="D24">
-        <v>1.029084664526043</v>
+        <v>1.051536475700023</v>
       </c>
       <c r="E24">
-        <v>0.9946214403899197</v>
+        <v>1.030483837862118</v>
       </c>
       <c r="F24">
-        <v>1.022501447198696</v>
+        <v>1.055359315940815</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043310048888543</v>
+        <v>1.040605805668574</v>
       </c>
       <c r="J24">
-        <v>1.013388242756891</v>
+        <v>1.037006450806741</v>
       </c>
       <c r="K24">
-        <v>1.042619572497831</v>
+        <v>1.054853200679097</v>
       </c>
       <c r="L24">
-        <v>1.008743672554217</v>
+        <v>1.033873262397562</v>
       </c>
       <c r="M24">
-        <v>1.036144608269102</v>
+        <v>1.058663181631392</v>
       </c>
       <c r="N24">
-        <v>1.007862528788433</v>
+        <v>1.016223878513835</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9946997745430394</v>
+        <v>1.032602771098111</v>
       </c>
       <c r="D25">
-        <v>1.035781493744135</v>
+        <v>1.052871710861837</v>
       </c>
       <c r="E25">
-        <v>1.002147682951385</v>
+        <v>1.032034824489653</v>
       </c>
       <c r="F25">
-        <v>1.030658836882524</v>
+        <v>1.05704362870778</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046250425240099</v>
+        <v>1.041075663788699</v>
       </c>
       <c r="J25">
-        <v>1.019406838543156</v>
+        <v>1.038214894109675</v>
       </c>
       <c r="K25">
-        <v>1.047848627683013</v>
+        <v>1.055871537735118</v>
       </c>
       <c r="L25">
-        <v>1.014712750145679</v>
+        <v>1.035099233855066</v>
       </c>
       <c r="M25">
-        <v>1.042799151966546</v>
+        <v>1.060030858559221</v>
       </c>
       <c r="N25">
-        <v>1.009944016236908</v>
+        <v>1.016635261695945</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_67/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_67/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.03405623995107</v>
+        <v>1.001875573222701</v>
       </c>
       <c r="D2">
-        <v>1.053937298376954</v>
+        <v>1.040922547239973</v>
       </c>
       <c r="E2">
-        <v>1.033273968449183</v>
+        <v>1.00792723620687</v>
       </c>
       <c r="F2">
-        <v>1.058389320342116</v>
+        <v>1.036926976714758</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041446407748981</v>
+        <v>1.048469302781055</v>
       </c>
       <c r="J2">
-        <v>1.039177576438479</v>
+        <v>1.024000330568078</v>
       </c>
       <c r="K2">
-        <v>1.05668188945192</v>
+        <v>1.051839751829942</v>
       </c>
       <c r="L2">
-        <v>1.036076790351392</v>
+        <v>1.019277225823329</v>
       </c>
       <c r="M2">
-        <v>1.06112168783682</v>
+        <v>1.047894758425326</v>
       </c>
       <c r="N2">
-        <v>1.016962485373594</v>
+        <v>1.011530982553315</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.03511211875877</v>
+        <v>1.006921422728615</v>
       </c>
       <c r="D3">
-        <v>1.054711345835702</v>
+        <v>1.044548049955911</v>
       </c>
       <c r="E3">
-        <v>1.034174896856251</v>
+        <v>1.012005137213922</v>
       </c>
       <c r="F3">
-        <v>1.059367726844822</v>
+        <v>1.041351355618684</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041713268513735</v>
+        <v>1.050011809175189</v>
       </c>
       <c r="J3">
-        <v>1.039875888773329</v>
+        <v>1.027225164810596</v>
       </c>
       <c r="K3">
-        <v>1.057269180782924</v>
+        <v>1.054640975697163</v>
       </c>
       <c r="L3">
-        <v>1.036786419238477</v>
+        <v>1.022486680342161</v>
       </c>
       <c r="M3">
-        <v>1.061913700999173</v>
+        <v>1.051481125603316</v>
       </c>
       <c r="N3">
-        <v>1.017199557136452</v>
+        <v>1.012643980164861</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.035795591188602</v>
+        <v>1.010115167219567</v>
       </c>
       <c r="D4">
-        <v>1.055212356676277</v>
+        <v>1.046846984185083</v>
       </c>
       <c r="E4">
-        <v>1.034758410727506</v>
+        <v>1.014592256559298</v>
       </c>
       <c r="F4">
-        <v>1.060001425775855</v>
+        <v>1.044158941406251</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041884864582707</v>
+        <v>1.050979585305238</v>
       </c>
       <c r="J4">
-        <v>1.040327427848801</v>
+        <v>1.02926361805729</v>
       </c>
       <c r="K4">
-        <v>1.057648686896345</v>
+        <v>1.056411065611828</v>
       </c>
       <c r="L4">
-        <v>1.037245519337699</v>
+        <v>1.024517699105209</v>
       </c>
       <c r="M4">
-        <v>1.062426171140407</v>
+        <v>1.053752091426646</v>
       </c>
       <c r="N4">
-        <v>1.017352716064742</v>
+        <v>1.013346946275845</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.036082982452811</v>
+        <v>1.011441427578385</v>
       </c>
       <c r="D5">
-        <v>1.055423016611189</v>
+        <v>1.047802574084793</v>
       </c>
       <c r="E5">
-        <v>1.035003851726083</v>
+        <v>1.015667999377723</v>
       </c>
       <c r="F5">
-        <v>1.06026797664285</v>
+        <v>1.045326490890087</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041956744525575</v>
+        <v>1.051379373807261</v>
       </c>
       <c r="J5">
-        <v>1.040517178951307</v>
+        <v>1.030109437096145</v>
       </c>
       <c r="K5">
-        <v>1.057808108297795</v>
+        <v>1.057145352495499</v>
       </c>
       <c r="L5">
-        <v>1.037438506096037</v>
+        <v>1.025360979492748</v>
       </c>
       <c r="M5">
-        <v>1.062641609157774</v>
+        <v>1.054695316909338</v>
       </c>
       <c r="N5">
-        <v>1.017417045835507</v>
+        <v>1.013638484323464</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.036131240198004</v>
+        <v>1.011663170196917</v>
       </c>
       <c r="D6">
-        <v>1.055458389362577</v>
+        <v>1.047962394164812</v>
       </c>
       <c r="E6">
-        <v>1.035045070058935</v>
+        <v>1.015847937486016</v>
       </c>
       <c r="F6">
-        <v>1.060312740115338</v>
+        <v>1.045521792724467</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041968798284366</v>
+        <v>1.051446091291937</v>
       </c>
       <c r="J6">
-        <v>1.040549034534105</v>
+        <v>1.030250811404839</v>
       </c>
       <c r="K6">
-        <v>1.057834868620789</v>
+        <v>1.057268073161827</v>
       </c>
       <c r="L6">
-        <v>1.037470908299772</v>
+        <v>1.025501961520312</v>
       </c>
       <c r="M6">
-        <v>1.062677781867066</v>
+        <v>1.054853026128203</v>
       </c>
       <c r="N6">
-        <v>1.017427843665242</v>
+        <v>1.0136872046671</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.035799431091074</v>
+        <v>1.010132952317049</v>
       </c>
       <c r="D7">
-        <v>1.05521517138848</v>
+        <v>1.046859795104007</v>
       </c>
       <c r="E7">
-        <v>1.034761689805146</v>
+        <v>1.014606676784308</v>
       </c>
       <c r="F7">
-        <v>1.060004986877506</v>
+        <v>1.04417459178407</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041885826064291</v>
+        <v>1.050984954805332</v>
       </c>
       <c r="J7">
-        <v>1.040329963611079</v>
+        <v>1.02927496321797</v>
       </c>
       <c r="K7">
-        <v>1.057650817576993</v>
+        <v>1.056420915524776</v>
       </c>
       <c r="L7">
-        <v>1.037248098111101</v>
+        <v>1.024529008058758</v>
       </c>
       <c r="M7">
-        <v>1.062429049852092</v>
+        <v>1.05376473948076</v>
       </c>
       <c r="N7">
-        <v>1.017353575871419</v>
+        <v>1.013350857324137</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.034413027753361</v>
+        <v>1.003596011052605</v>
       </c>
       <c r="D8">
-        <v>1.054198859588805</v>
+        <v>1.042157766325685</v>
       </c>
       <c r="E8">
-        <v>1.033578326563954</v>
+        <v>1.009316341840676</v>
       </c>
       <c r="F8">
-        <v>1.058719851704352</v>
+        <v>1.038433957155611</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041536818162048</v>
+        <v>1.048997001325006</v>
       </c>
       <c r="J8">
-        <v>1.039413639521087</v>
+        <v>1.025100412448684</v>
       </c>
       <c r="K8">
-        <v>1.056880472608188</v>
+        <v>1.052795430049807</v>
       </c>
       <c r="L8">
-        <v>1.036316628490115</v>
+        <v>1.020371578986046</v>
       </c>
       <c r="M8">
-        <v>1.061389355112086</v>
+        <v>1.04911731583826</v>
       </c>
       <c r="N8">
-        <v>1.017042654933287</v>
+        <v>1.011910772831187</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.031971907633337</v>
+        <v>0.9914992438489224</v>
       </c>
       <c r="D9">
-        <v>1.052409185030114</v>
+        <v>1.033494431895554</v>
       </c>
       <c r="E9">
-        <v>1.031497350955861</v>
+        <v>0.9995772429419684</v>
       </c>
       <c r="F9">
-        <v>1.056459947835809</v>
+        <v>1.027872146807529</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040913559143294</v>
+        <v>1.045252304573211</v>
       </c>
       <c r="J9">
-        <v>1.037796556547745</v>
+        <v>1.01735579871612</v>
       </c>
       <c r="K9">
-        <v>1.055519146960509</v>
+        <v>1.046066492912478</v>
       </c>
       <c r="L9">
-        <v>1.034674687255071</v>
+        <v>1.012677182810221</v>
       </c>
       <c r="M9">
-        <v>1.059557196015681</v>
+        <v>1.040528642838092</v>
       </c>
       <c r="N9">
-        <v>1.016492926095446</v>
+        <v>1.009234918927916</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.030345766534225</v>
+        <v>0.9829979803549361</v>
       </c>
       <c r="D10">
-        <v>1.051216932667755</v>
+        <v>1.027438416452249</v>
       </c>
       <c r="E10">
-        <v>1.03011293331966</v>
+        <v>0.992771289092649</v>
       </c>
       <c r="F10">
-        <v>1.054956534652754</v>
+        <v>1.020497138504888</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040492516389032</v>
+        <v>1.042579281364793</v>
       </c>
       <c r="J10">
-        <v>1.036716904171296</v>
+        <v>1.011902787708599</v>
       </c>
       <c r="K10">
-        <v>1.054609029641201</v>
+        <v>1.04132932531817</v>
       </c>
       <c r="L10">
-        <v>1.033579698400884</v>
+        <v>1.007272298354153</v>
       </c>
       <c r="M10">
-        <v>1.058335743458551</v>
+        <v>1.034505916709733</v>
       </c>
       <c r="N10">
-        <v>1.016125211302096</v>
+        <v>1.007348503774098</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.029641929260788</v>
+        <v>0.9792013954445943</v>
       </c>
       <c r="D11">
-        <v>1.050700891300611</v>
+        <v>1.024743129981511</v>
       </c>
       <c r="E11">
-        <v>1.029514159520147</v>
+        <v>0.989741888480912</v>
       </c>
       <c r="F11">
-        <v>1.05430630673954</v>
+        <v>1.017216249399554</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04030889061943</v>
+        <v>1.041376512444941</v>
       </c>
       <c r="J11">
-        <v>1.036249027276852</v>
+        <v>1.00946576925343</v>
       </c>
       <c r="K11">
-        <v>1.05421433830249</v>
+        <v>1.039213040540772</v>
       </c>
       <c r="L11">
-        <v>1.033105474881998</v>
+        <v>1.004859885750758</v>
       </c>
       <c r="M11">
-        <v>1.057806846547167</v>
+        <v>1.031820635349565</v>
       </c>
       <c r="N11">
-        <v>1.015965697704369</v>
+        <v>1.006505005695147</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.029380536432043</v>
+        <v>0.9777727202030991</v>
       </c>
       <c r="D12">
-        <v>1.050509243306792</v>
+        <v>1.023730418415408</v>
       </c>
       <c r="E12">
-        <v>1.029291852125524</v>
+        <v>0.9886035101073843</v>
       </c>
       <c r="F12">
-        <v>1.054064898060966</v>
+        <v>1.015983676682146</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040240487043985</v>
+        <v>1.040922620105848</v>
       </c>
       <c r="J12">
-        <v>1.036075180020269</v>
+        <v>1.008548505365794</v>
       </c>
       <c r="K12">
-        <v>1.054067642158573</v>
+        <v>1.038416678168967</v>
       </c>
       <c r="L12">
-        <v>1.032929314503283</v>
+        <v>1.00395235507213</v>
       </c>
       <c r="M12">
-        <v>1.057610391334591</v>
+        <v>1.030810930302372</v>
       </c>
       <c r="N12">
-        <v>1.015906403753116</v>
+        <v>1.006187468285807</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.029436604109276</v>
+        <v>0.9780800297282061</v>
       </c>
       <c r="D13">
-        <v>1.050550350955249</v>
+        <v>1.023948181754395</v>
       </c>
       <c r="E13">
-        <v>1.029339533109185</v>
+        <v>0.9888483026740456</v>
       </c>
       <c r="F13">
-        <v>1.054116675829569</v>
+        <v>1.016248709825189</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040255168744249</v>
+        <v>1.041020309626105</v>
       </c>
       <c r="J13">
-        <v>1.03611247342081</v>
+        <v>1.008745817799903</v>
       </c>
       <c r="K13">
-        <v>1.054099113051558</v>
+        <v>1.038587974329502</v>
       </c>
       <c r="L13">
-        <v>1.03296710207024</v>
+        <v>1.004147552372038</v>
       </c>
       <c r="M13">
-        <v>1.057652531605</v>
+        <v>1.031028081664268</v>
       </c>
       <c r="N13">
-        <v>1.015919124472609</v>
+        <v>1.006255776005469</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.029620321558706</v>
+        <v>0.97908368387793</v>
       </c>
       <c r="D14">
-        <v>1.050685048944257</v>
+        <v>1.024659658395305</v>
       </c>
       <c r="E14">
-        <v>1.029495781400257</v>
+        <v>0.9896480620273821</v>
       </c>
       <c r="F14">
-        <v>1.054286349474184</v>
+        <v>1.017114652823657</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040303240371542</v>
+        <v>1.041339140957364</v>
       </c>
       <c r="J14">
-        <v>1.036234658168967</v>
+        <v>1.009390197651099</v>
       </c>
       <c r="K14">
-        <v>1.054202214190096</v>
+        <v>1.039147425745458</v>
       </c>
       <c r="L14">
-        <v>1.033090913666495</v>
+        <v>1.004785106422809</v>
       </c>
       <c r="M14">
-        <v>1.057790607481093</v>
+        <v>1.031737427053385</v>
       </c>
       <c r="N14">
-        <v>1.015960797334236</v>
+        <v>1.006478845458196</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.029733521721556</v>
+        <v>0.9796995883508203</v>
       </c>
       <c r="D15">
-        <v>1.050768045187944</v>
+        <v>1.025096471961265</v>
       </c>
       <c r="E15">
-        <v>1.029592064904939</v>
+        <v>0.9901390577385385</v>
       </c>
       <c r="F15">
-        <v>1.054390906257046</v>
+        <v>1.017646322579795</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040332832818674</v>
+        <v>1.041534628632594</v>
       </c>
       <c r="J15">
-        <v>1.036309932684731</v>
+        <v>1.009785604589111</v>
       </c>
       <c r="K15">
-        <v>1.054265726269481</v>
+        <v>1.039490744264513</v>
       </c>
       <c r="L15">
-        <v>1.033167196409819</v>
+        <v>1.005176387272333</v>
       </c>
       <c r="M15">
-        <v>1.057875680690467</v>
+        <v>1.032172831932498</v>
       </c>
       <c r="N15">
-        <v>1.015986467600763</v>
+        <v>1.006615719284866</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.030392484035785</v>
+        <v>0.9832474218462399</v>
       </c>
       <c r="D16">
-        <v>1.051251185174982</v>
+        <v>1.027615706011683</v>
       </c>
       <c r="E16">
-        <v>1.030152686503374</v>
+        <v>0.992970542309491</v>
       </c>
       <c r="F16">
-        <v>1.054999704212511</v>
+        <v>1.020712973648404</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04050467541622</v>
+        <v>1.042658123341557</v>
       </c>
       <c r="J16">
-        <v>1.036747947623624</v>
+        <v>1.012062872286879</v>
       </c>
       <c r="K16">
-        <v>1.054635211321308</v>
+        <v>1.041468363146925</v>
       </c>
       <c r="L16">
-        <v>1.033611169264252</v>
+        <v>1.007430831582405</v>
       </c>
       <c r="M16">
-        <v>1.058370844660961</v>
+        <v>1.034682445421194</v>
       </c>
       <c r="N16">
-        <v>1.016135791584794</v>
+        <v>1.007403903872029</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.030805911811829</v>
+        <v>0.9854412139790881</v>
       </c>
       <c r="D17">
-        <v>1.051554303479122</v>
+        <v>1.029176005876387</v>
       </c>
       <c r="E17">
-        <v>1.030504534191916</v>
+        <v>0.9947240928675953</v>
       </c>
       <c r="F17">
-        <v>1.055381791066707</v>
+        <v>1.022612664967745</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040612116790759</v>
+        <v>1.043350507023875</v>
       </c>
       <c r="J17">
-        <v>1.037022601140543</v>
+        <v>1.013470594616732</v>
       </c>
       <c r="K17">
-        <v>1.054866818117417</v>
+        <v>1.042691107747244</v>
       </c>
       <c r="L17">
-        <v>1.033889638853648</v>
+        <v>1.008825264573133</v>
       </c>
       <c r="M17">
-        <v>1.058681448412934</v>
+        <v>1.036235497995183</v>
       </c>
       <c r="N17">
-        <v>1.016229380875844</v>
+        <v>1.007891022804966</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.031047085484624</v>
+        <v>0.9867097526979839</v>
       </c>
       <c r="D18">
-        <v>1.051731127628309</v>
+        <v>1.030079102252085</v>
       </c>
       <c r="E18">
-        <v>1.030709827363334</v>
+        <v>0.9957390144603872</v>
       </c>
       <c r="F18">
-        <v>1.055604729134824</v>
+        <v>1.023712338532462</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040674658971482</v>
+        <v>1.043750011669715</v>
       </c>
       <c r="J18">
-        <v>1.037182765184883</v>
+        <v>1.014284425700386</v>
       </c>
       <c r="K18">
-        <v>1.055001852072955</v>
+        <v>1.043398072737539</v>
       </c>
       <c r="L18">
-        <v>1.034052057125074</v>
+        <v>1.009631705653431</v>
       </c>
       <c r="M18">
-        <v>1.058862618294166</v>
+        <v>1.037133945137729</v>
       </c>
       <c r="N18">
-        <v>1.016283941869457</v>
+        <v>1.008172593587785</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.0311293242741</v>
+        <v>0.987140447228578</v>
       </c>
       <c r="D19">
-        <v>1.051791423520558</v>
+        <v>1.030385864817712</v>
       </c>
       <c r="E19">
-        <v>1.030779838272485</v>
+        <v>0.9960837591775222</v>
       </c>
       <c r="F19">
-        <v>1.055680757659925</v>
+        <v>1.024085898969221</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040695962765445</v>
+        <v>1.043885503729774</v>
       </c>
       <c r="J19">
-        <v>1.037237370753428</v>
+        <v>1.014560707067295</v>
       </c>
       <c r="K19">
-        <v>1.055047885242844</v>
+        <v>1.043638085639189</v>
       </c>
       <c r="L19">
-        <v>1.034107436136883</v>
+        <v>1.009905527729716</v>
       </c>
       <c r="M19">
-        <v>1.058924392517083</v>
+        <v>1.037439052220459</v>
       </c>
       <c r="N19">
-        <v>1.016302540994247</v>
+        <v>1.008268174506875</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.030761552004422</v>
+        <v>0.985206992854839</v>
       </c>
       <c r="D20">
-        <v>1.051521779639966</v>
+        <v>1.029009328691589</v>
       </c>
       <c r="E20">
-        <v>1.030466777396659</v>
+        <v>0.9945367753027343</v>
       </c>
       <c r="F20">
-        <v>1.05534078917909</v>
+        <v>1.022409718630507</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040600602436486</v>
+        <v>1.043276673088925</v>
       </c>
       <c r="J20">
-        <v>1.03699313721264</v>
+        <v>1.013320315820468</v>
       </c>
       <c r="K20">
-        <v>1.054841974933096</v>
+        <v>1.042560567917258</v>
       </c>
       <c r="L20">
-        <v>1.033859762561438</v>
+        <v>1.00867637401998</v>
       </c>
       <c r="M20">
-        <v>1.058648123568578</v>
+        <v>1.036069642354587</v>
       </c>
       <c r="N20">
-        <v>1.01621934253139</v>
+        <v>1.007839025604354</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.02956622014552</v>
+        <v>0.9787886515073274</v>
       </c>
       <c r="D21">
-        <v>1.050645382832319</v>
+        <v>1.024450470439505</v>
       </c>
       <c r="E21">
-        <v>1.029449767302281</v>
+        <v>0.9894129214192412</v>
       </c>
       <c r="F21">
-        <v>1.054236381636462</v>
+        <v>1.016860044451841</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040289089905801</v>
+        <v>1.04124545260367</v>
       </c>
       <c r="J21">
-        <v>1.036198679376466</v>
+        <v>1.009200781909961</v>
       </c>
       <c r="K21">
-        <v>1.054171855959721</v>
+        <v>1.03898296927723</v>
       </c>
       <c r="L21">
-        <v>1.033054454584163</v>
+        <v>1.004597684092006</v>
       </c>
       <c r="M21">
-        <v>1.057749947554012</v>
+        <v>1.031528886695968</v>
       </c>
       <c r="N21">
-        <v>1.015948526914563</v>
+        <v>1.006413275524336</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.028814920106885</v>
+        <v>0.974645798546498</v>
       </c>
       <c r="D22">
-        <v>1.050094547297467</v>
+        <v>1.021516911878845</v>
       </c>
       <c r="E22">
-        <v>1.028810933794374</v>
+        <v>0.9861150051612563</v>
       </c>
       <c r="F22">
-        <v>1.053542662043906</v>
+        <v>1.013289875691734</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040092091178684</v>
+        <v>1.03992691244233</v>
       </c>
       <c r="J22">
-        <v>1.035698842827351</v>
+        <v>1.006540605907674</v>
       </c>
       <c r="K22">
-        <v>1.05375000396003</v>
+        <v>1.036673835262193</v>
       </c>
       <c r="L22">
-        <v>1.032548052457542</v>
+        <v>1.001966637690112</v>
       </c>
       <c r="M22">
-        <v>1.057185232717284</v>
+        <v>1.028602576250603</v>
       </c>
       <c r="N22">
-        <v>1.015778002801944</v>
+        <v>1.00549228628412</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.029213174626349</v>
+        <v>0.9768525752952364</v>
       </c>
       <c r="D23">
-        <v>1.050386537323817</v>
+        <v>1.023078629627653</v>
       </c>
       <c r="E23">
-        <v>1.029149534390942</v>
+        <v>0.987870794941222</v>
       </c>
       <c r="F23">
-        <v>1.053910352615144</v>
+        <v>1.015190425684203</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040196631759034</v>
+        <v>1.040629936111418</v>
       </c>
       <c r="J23">
-        <v>1.035963846796709</v>
+        <v>1.007957688908677</v>
       </c>
       <c r="K23">
-        <v>1.053973684922509</v>
+        <v>1.037903794054898</v>
       </c>
       <c r="L23">
-        <v>1.032816512632506</v>
+        <v>1.003367941690173</v>
       </c>
       <c r="M23">
-        <v>1.057484598139138</v>
+        <v>1.03016086049832</v>
       </c>
       <c r="N23">
-        <v>1.01586842465094</v>
+        <v>1.005982925899909</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.030781596204486</v>
+        <v>0.9853128614061023</v>
       </c>
       <c r="D24">
-        <v>1.051536475700023</v>
+        <v>1.029084664526043</v>
       </c>
       <c r="E24">
-        <v>1.030483837862118</v>
+        <v>0.9946214403899202</v>
       </c>
       <c r="F24">
-        <v>1.055359315940815</v>
+        <v>1.022501447198696</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040605805668574</v>
+        <v>1.043310048888543</v>
       </c>
       <c r="J24">
-        <v>1.037006450806741</v>
+        <v>1.013388242756891</v>
       </c>
       <c r="K24">
-        <v>1.054853200679097</v>
+        <v>1.042619572497831</v>
       </c>
       <c r="L24">
-        <v>1.033873262397562</v>
+        <v>1.008743672554217</v>
       </c>
       <c r="M24">
-        <v>1.058663181631392</v>
+        <v>1.036144608269103</v>
       </c>
       <c r="N24">
-        <v>1.016223878513835</v>
+        <v>1.007862528788433</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.032602771098111</v>
+        <v>0.9946997745430379</v>
       </c>
       <c r="D25">
-        <v>1.052871710861837</v>
+        <v>1.035781493744134</v>
       </c>
       <c r="E25">
-        <v>1.032034824489653</v>
+        <v>1.002147682951384</v>
       </c>
       <c r="F25">
-        <v>1.05704362870778</v>
+        <v>1.030658836882523</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041075663788699</v>
+        <v>1.046250425240099</v>
       </c>
       <c r="J25">
-        <v>1.038214894109675</v>
+        <v>1.019406838543155</v>
       </c>
       <c r="K25">
-        <v>1.055871537735118</v>
+        <v>1.047848627683012</v>
       </c>
       <c r="L25">
-        <v>1.035099233855066</v>
+        <v>1.014712750145678</v>
       </c>
       <c r="M25">
-        <v>1.060030858559221</v>
+        <v>1.042799151966544</v>
       </c>
       <c r="N25">
-        <v>1.016635261695945</v>
+        <v>1.009944016236907</v>
       </c>
     </row>
   </sheetData>
